--- a/data/food menu thai english.xlsx
+++ b/data/food menu thai english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{AC4A4672-272A-4B73-A7D0-BA170FBF9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3099914A-63A2-4A72-92E1-E0C7E945123C}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{AC4A4672-272A-4B73-A7D0-BA170FBF9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C7154C2-F1A5-45B5-A111-7DE694442D34}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>ข้าวสวย</t>
   </si>
@@ -236,12 +236,6 @@
     <t>Congee</t>
   </si>
   <si>
-    <t>โจ๊กหมู</t>
-  </si>
-  <si>
-    <t>Congee with pork</t>
-  </si>
-  <si>
     <t>ต้มยำกุ้ง</t>
   </si>
   <si>
@@ -612,6 +606,9 @@
   </si>
   <si>
     <t>qty</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -1270,274 +1267,320 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>136</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
         <v>126</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>144</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>109</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>144</v>
       </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
+        <v>196</v>
+      </c>
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="D7">
-        <v>196</v>
-      </c>
-      <c r="E7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>160</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>124</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>124</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>155</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12">
+        <v>4.5</v>
+      </c>
+      <c r="E12">
         <v>116</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>154</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
         <v>155</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
         <v>134</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1548,64 +1591,76 @@
         <v>9</v>
       </c>
       <c r="D16">
+        <v>4.5</v>
+      </c>
+      <c r="E16">
         <v>134</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>193</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18">
+        <v>3.5</v>
+      </c>
+      <c r="E18">
         <v>179</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>139</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1613,33 +1668,39 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
         <v>114</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
         <v>161</v>
       </c>
-      <c r="E21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1650,13 +1711,16 @@
         <v>26</v>
       </c>
       <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
         <v>149</v>
       </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1667,13 +1731,16 @@
         <v>28</v>
       </c>
       <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>149</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1684,13 +1751,16 @@
         <v>30</v>
       </c>
       <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
         <v>177</v>
       </c>
-      <c r="E24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1701,13 +1771,16 @@
         <v>58</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>186</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1718,13 +1791,16 @@
         <v>62</v>
       </c>
       <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>163</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1735,13 +1811,16 @@
         <v>32</v>
       </c>
       <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
         <v>156</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1752,13 +1831,16 @@
         <v>64</v>
       </c>
       <c r="D28">
+        <v>4.5</v>
+      </c>
+      <c r="E28">
         <v>129</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1769,13 +1851,16 @@
         <v>34</v>
       </c>
       <c r="D29">
+        <v>3.5</v>
+      </c>
+      <c r="E29">
         <v>190</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1786,13 +1871,16 @@
         <v>36</v>
       </c>
       <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
         <v>134</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1803,13 +1891,16 @@
         <v>48</v>
       </c>
       <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>160</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1820,13 +1911,16 @@
         <v>50</v>
       </c>
       <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
         <v>117</v>
       </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1837,13 +1931,16 @@
         <v>52</v>
       </c>
       <c r="D33">
+        <v>3.5</v>
+      </c>
+      <c r="E33">
         <v>135</v>
       </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1854,13 +1951,16 @@
         <v>46</v>
       </c>
       <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
         <v>159</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1871,13 +1971,16 @@
         <v>38</v>
       </c>
       <c r="D35">
+        <v>3.5</v>
+      </c>
+      <c r="E35">
         <v>141</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1888,13 +1991,16 @@
         <v>1</v>
       </c>
       <c r="D36">
+        <v>4.5</v>
+      </c>
+      <c r="E36">
         <v>148</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1905,13 +2011,16 @@
         <v>40</v>
       </c>
       <c r="D37">
+        <v>3.5</v>
+      </c>
+      <c r="E37">
         <v>155</v>
       </c>
-      <c r="E37">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1922,13 +2031,16 @@
         <v>54</v>
       </c>
       <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
         <v>166</v>
       </c>
-      <c r="E38">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1939,13 +2051,16 @@
         <v>42</v>
       </c>
       <c r="D39">
+        <v>3.5</v>
+      </c>
+      <c r="E39">
         <v>175</v>
       </c>
-      <c r="E39">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1956,13 +2071,16 @@
         <v>44</v>
       </c>
       <c r="D40">
+        <v>3.5</v>
+      </c>
+      <c r="E40">
         <v>225</v>
       </c>
-      <c r="E40">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1973,13 +2091,16 @@
         <v>3</v>
       </c>
       <c r="D41">
+        <v>3.5</v>
+      </c>
+      <c r="E41">
         <v>123</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1990,13 +2111,16 @@
         <v>60</v>
       </c>
       <c r="D42">
+        <v>4.5</v>
+      </c>
+      <c r="E42">
         <v>155</v>
       </c>
-      <c r="E42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2007,132 +2131,156 @@
         <v>56</v>
       </c>
       <c r="D43">
+        <v>3.5</v>
+      </c>
+      <c r="E43">
         <v>117</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>104</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D45">
+        <v>2.5</v>
+      </c>
+      <c r="E45">
         <v>143</v>
       </c>
-      <c r="E45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46">
+        <v>3.5</v>
+      </c>
+      <c r="E46">
         <v>159</v>
       </c>
-      <c r="E46">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47">
+        <v>4.5</v>
+      </c>
+      <c r="E47">
         <v>160</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48">
+        <v>2.5</v>
+      </c>
+      <c r="E48">
         <v>155</v>
       </c>
-      <c r="E48">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>173</v>
       </c>
-      <c r="E49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
         <v>153</v>
       </c>
-      <c r="E50">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2143,13 +2291,16 @@
         <v>7</v>
       </c>
       <c r="D51">
+        <v>4.5</v>
+      </c>
+      <c r="E51">
         <v>98</v>
       </c>
-      <c r="E51">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2160,30 +2311,36 @@
         <v>66</v>
       </c>
       <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
         <v>142</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D53">
-        <v>140</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2194,47 +2351,56 @@
         <v>78</v>
       </c>
       <c r="D54">
-        <v>170</v>
+        <v>4.5</v>
       </c>
       <c r="E54">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2245,115 +2411,136 @@
         <v>70</v>
       </c>
       <c r="D57">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>102</v>
+      </c>
+      <c r="F57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>102</v>
+        <v>3.5</v>
       </c>
       <c r="E58">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>108</v>
+        <v>3.5</v>
       </c>
       <c r="E59">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="D60">
-        <v>156</v>
+        <v>4.5</v>
       </c>
       <c r="E60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D61">
-        <v>164</v>
+        <v>4.5</v>
       </c>
       <c r="E61">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F61">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D62">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>155</v>
+      </c>
+      <c r="F62">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D63">
-        <v>155</v>
+        <v>3.5</v>
       </c>
       <c r="E63">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2364,13 +2551,16 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2381,81 +2571,96 @@
         <v>135</v>
       </c>
       <c r="D65">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F65">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66">
+        <v>3.5</v>
+      </c>
+      <c r="E66">
         <v>137</v>
       </c>
-      <c r="D66">
-        <v>148</v>
-      </c>
-      <c r="E66">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D67">
-        <v>137</v>
+        <v>3.5</v>
       </c>
       <c r="E67">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F67">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>167</v>
+        <v>4.5</v>
       </c>
       <c r="E68">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D69">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="F69">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2466,47 +2671,56 @@
         <v>139</v>
       </c>
       <c r="D70">
-        <v>171</v>
+        <v>4.5</v>
       </c>
       <c r="E70">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F70">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D71">
-        <v>161</v>
+        <v>3.5</v>
       </c>
       <c r="E71">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="F71">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D72">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="F72">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2517,64 +2731,76 @@
         <v>101</v>
       </c>
       <c r="D73">
-        <v>118</v>
+        <v>3.5</v>
       </c>
       <c r="E73">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F73">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D74">
-        <v>193</v>
+        <v>3.5</v>
       </c>
       <c r="E74">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="F74">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D75">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="E75">
+        <v>146</v>
+      </c>
+      <c r="F75">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D76">
-        <v>146</v>
+        <v>3.5</v>
       </c>
       <c r="E76">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="F76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2585,30 +2811,36 @@
         <v>165</v>
       </c>
       <c r="D77">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D78">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F78">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2619,13 +2851,16 @@
         <v>109</v>
       </c>
       <c r="D79">
-        <v>160</v>
+        <v>2.5</v>
       </c>
       <c r="E79">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2636,115 +2871,136 @@
         <v>111</v>
       </c>
       <c r="D80">
-        <v>182</v>
+        <v>4.5</v>
       </c>
       <c r="E80">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="F80">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D81">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>174</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D83">
-        <v>161</v>
+        <v>3.5</v>
       </c>
       <c r="E83">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>141</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84">
-        <v>141</v>
+        <v>3.5</v>
       </c>
       <c r="E84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D86">
-        <v>121</v>
+        <v>4.5</v>
       </c>
       <c r="E86">
+        <v>178</v>
+      </c>
+      <c r="F86">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2755,13 +3011,16 @@
         <v>115</v>
       </c>
       <c r="D87">
-        <v>178</v>
+        <v>3.5</v>
       </c>
       <c r="E87">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>133</v>
+      </c>
+      <c r="F87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2772,47 +3031,56 @@
         <v>117</v>
       </c>
       <c r="D88">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E88">
+        <v>191</v>
+      </c>
+      <c r="F88">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D89">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F89">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D90">
-        <v>160</v>
+        <v>4.5</v>
       </c>
       <c r="E90">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>159</v>
+      </c>
+      <c r="F90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2823,47 +3091,56 @@
         <v>121</v>
       </c>
       <c r="D91">
-        <v>159</v>
+        <v>4.5</v>
       </c>
       <c r="E91">
+        <v>128</v>
+      </c>
+      <c r="F91">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D92">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="F92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D93">
-        <v>181</v>
+        <v>3.5</v>
       </c>
       <c r="E93">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2874,32 +3151,18 @@
         <v>125</v>
       </c>
       <c r="D94">
-        <v>176</v>
+        <v>3.5</v>
       </c>
       <c r="E94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" t="s">
-        <v>127</v>
-      </c>
-      <c r="D95">
         <v>120</v>
       </c>
-      <c r="E95">
+      <c r="F94">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C95">
-    <sortCondition ref="B2:B95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C94">
+    <sortCondition ref="B2:B94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
